--- a/IceCreamFaves.xlsx
+++ b/IceCreamFaves.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/3/Activities/01-Ins_GitHub/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\UCI Data Analytics Boot Camp\GitHub\UCI-DataAnalytics\Modules\Module 01\excel_day3_activities\Excel\Activities\01-Ins_GitHub\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6003D3-E62E-E34E-A321-E4F2265EBF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA87864-A915-407F-B6FF-92EAC013B54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="1700" windowWidth="14620" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Vanilla</t>
   </si>
@@ -144,7 +144,43 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -195,7 +231,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:C11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C11">
     <sortCondition descending="1" ref="C1:C11"/>
@@ -203,7 +239,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Flavor"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Number of Faves"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Percentage of Total" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Percentage of Total" dataDxfId="2" dataCellStyle="Percent">
       <calculatedColumnFormula>B2/$A$15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -211,10 +247,27 @@
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{853E0672-512B-47D2-92B9-B649379AA8B9}" name="Table13" displayName="Table13" ref="E1:G11" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="E1:G11" xr:uid="{853E0672-512B-47D2-92B9-B649379AA8B9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:G11">
+    <sortCondition descending="1" ref="G1:G11"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6553A51D-1E64-4863-907C-AE841D9992D2}" name="Flavor"/>
+    <tableColumn id="2" xr3:uid="{8DA2358D-03D5-432A-9B54-4FB4D87E88B5}" name="Number of Faves"/>
+    <tableColumn id="3" xr3:uid="{5D1C1A08-E114-4604-BE00-3C0E76E58E86}" name="Percentage of Total" dataDxfId="0" dataCellStyle="Percent">
+      <calculatedColumnFormula>F2/$A$15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -252,7 +305,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -358,7 +411,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -500,7 +553,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -508,20 +561,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="8" width="20.6640625" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -532,9 +585,17 @@
         <v>13</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -545,8 +606,18 @@
         <f t="shared" ref="C2:C11" si="0">B2/$A$15</f>
         <v>0.16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>96</v>
+      </c>
+      <c r="G2" s="2">
+        <f t="shared" ref="G2:G11" si="1">F2/$A$15</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -557,8 +628,18 @@
         <f t="shared" si="0"/>
         <v>0.15666666666666668</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>94</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15666666666666668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -569,8 +650,18 @@
         <f t="shared" si="0"/>
         <v>0.13166666666666665</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>79</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13166666666666665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -581,8 +672,18 @@
         <f t="shared" si="0"/>
         <v>0.11166666666666666</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>67</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11166666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -593,8 +694,18 @@
         <f t="shared" si="0"/>
         <v>0.10666666666666667</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>64</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10666666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -605,8 +716,18 @@
         <f t="shared" si="0"/>
         <v>9.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>57</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -617,8 +738,18 @@
         <f t="shared" si="0"/>
         <v>8.8333333333333333E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>53</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>8.8333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -629,8 +760,18 @@
         <f t="shared" si="0"/>
         <v>6.8333333333333329E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>41</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>6.8333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -641,8 +782,18 @@
         <f t="shared" si="0"/>
         <v>5.6666666666666664E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>34</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>5.6666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -653,13 +804,23 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>SUM(B2:B11)</f>
         <v>600</v>
@@ -668,8 +829,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>